--- a/Resilience Analysis/Acta/noBPS/SparesDemand.xlsx
+++ b/Resilience Analysis/Acta/noBPS/SparesDemand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="0" windowWidth="16760" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="componentData.csv" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,13 +283,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,7 +301,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -470,12 +463,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -556,6 +564,14 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -636,6 +652,14 @@
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -965,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74:L74"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -976,7 +1000,7 @@
     <col min="4" max="7" width="10.83203125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1036,8 +1060,23 @@
       <c r="L2">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>52</v>
+      </c>
+      <c r="N2">
+        <v>60</v>
+      </c>
+      <c r="O2">
+        <v>69</v>
+      </c>
+      <c r="P2">
+        <v>78</v>
+      </c>
+      <c r="Q2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -1068,8 +1107,23 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1097,8 +1151,23 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -1129,8 +1198,23 @@
       <c r="L5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -1161,8 +1245,23 @@
       <c r="L6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -1193,8 +1292,23 @@
       <c r="L7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -1225,8 +1339,23 @@
       <c r="L8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>15</v>
+      </c>
+      <c r="O8">
+        <v>17</v>
+      </c>
+      <c r="P8">
+        <v>19</v>
+      </c>
+      <c r="Q8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -1260,8 +1389,23 @@
       <c r="L9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="C10" t="s">
         <v>18</v>
       </c>
@@ -1292,8 +1436,23 @@
       <c r="L10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -1321,8 +1480,23 @@
       <c r="L11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -1350,8 +1524,23 @@
       <c r="L12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="C13" t="s">
         <v>21</v>
       </c>
@@ -1379,8 +1568,23 @@
       <c r="L13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="C14" t="s">
         <v>22</v>
       </c>
@@ -1411,8 +1615,23 @@
       <c r="L14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="C15" t="s">
         <v>23</v>
       </c>
@@ -1440,8 +1659,23 @@
       <c r="L15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1472,8 +1706,23 @@
       <c r="L16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+      <c r="O16">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1504,8 +1753,23 @@
       <c r="L17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>14</v>
+      </c>
+      <c r="P17">
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1536,8 +1800,23 @@
       <c r="L18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
       <c r="C19" t="s">
         <v>28</v>
       </c>
@@ -1565,8 +1844,23 @@
       <c r="L19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -1594,8 +1888,23 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
       <c r="C21" t="s">
         <v>30</v>
       </c>
@@ -1623,8 +1932,23 @@
       <c r="L21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
       <c r="C22" t="s">
         <v>31</v>
       </c>
@@ -1652,8 +1976,23 @@
       <c r="L22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
       <c r="C23" t="s">
         <v>32</v>
       </c>
@@ -1684,8 +2023,23 @@
       <c r="L23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
       <c r="C24" t="s">
         <v>33</v>
       </c>
@@ -1713,8 +2067,23 @@
       <c r="L24">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>38</v>
+      </c>
+      <c r="O24">
+        <v>43</v>
+      </c>
+      <c r="P24">
+        <v>47</v>
+      </c>
+      <c r="Q24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
       <c r="C25" t="s">
         <v>34</v>
       </c>
@@ -1742,8 +2111,23 @@
       <c r="L25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
       <c r="C26" t="s">
         <v>35</v>
       </c>
@@ -1774,8 +2158,23 @@
       <c r="L26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:12">
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
       <c r="C27" t="s">
         <v>36</v>
       </c>
@@ -1803,8 +2202,23 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:12">
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
       <c r="B28" t="s">
         <v>37</v>
       </c>
@@ -1838,8 +2252,23 @@
       <c r="L28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="2:12">
+      <c r="M28">
+        <v>6</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <v>8</v>
+      </c>
+      <c r="P28">
+        <v>9</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
       <c r="C29" t="s">
         <v>39</v>
       </c>
@@ -1870,8 +2299,23 @@
       <c r="L29">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29">
+        <v>7</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>9</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
       <c r="C30" t="s">
         <v>40</v>
       </c>
@@ -1902,8 +2346,23 @@
       <c r="L30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
       <c r="C31" t="s">
         <v>41</v>
       </c>
@@ -1934,8 +2393,23 @@
       <c r="L31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="M31">
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>8</v>
+      </c>
+      <c r="P31">
+        <v>9</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
       <c r="C32" t="s">
         <v>42</v>
       </c>
@@ -1966,8 +2440,23 @@
       <c r="L32">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="2:12">
+      <c r="M32">
+        <v>162</v>
+      </c>
+      <c r="N32">
+        <v>189</v>
+      </c>
+      <c r="O32">
+        <v>216</v>
+      </c>
+      <c r="P32">
+        <v>244</v>
+      </c>
+      <c r="Q32">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
       <c r="C33" t="s">
         <v>43</v>
       </c>
@@ -1998,8 +2487,23 @@
       <c r="L33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:12">
+      <c r="M33">
+        <v>13</v>
+      </c>
+      <c r="N33">
+        <v>15</v>
+      </c>
+      <c r="O33">
+        <v>17</v>
+      </c>
+      <c r="P33">
+        <v>19</v>
+      </c>
+      <c r="Q33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -2033,8 +2537,23 @@
       <c r="L34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="2:12">
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>9</v>
+      </c>
+      <c r="P34">
+        <v>9</v>
+      </c>
+      <c r="Q34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
       <c r="C35" t="s">
         <v>46</v>
       </c>
@@ -2065,8 +2584,23 @@
       <c r="L35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="M35">
+        <v>13</v>
+      </c>
+      <c r="N35">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>17</v>
+      </c>
+      <c r="P35">
+        <v>19</v>
+      </c>
+      <c r="Q35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
       <c r="C36" t="s">
         <v>47</v>
       </c>
@@ -2097,8 +2631,23 @@
       <c r="L36">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="2:12">
+      <c r="M36">
+        <v>81</v>
+      </c>
+      <c r="N36">
+        <v>94</v>
+      </c>
+      <c r="O36">
+        <v>108</v>
+      </c>
+      <c r="P36">
+        <v>122</v>
+      </c>
+      <c r="Q36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -2129,8 +2678,23 @@
       <c r="L37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="2:12">
+      <c r="M37">
+        <v>13</v>
+      </c>
+      <c r="N37">
+        <v>15</v>
+      </c>
+      <c r="O37">
+        <v>17</v>
+      </c>
+      <c r="P37">
+        <v>19</v>
+      </c>
+      <c r="Q37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
       <c r="C38" t="s">
         <v>49</v>
       </c>
@@ -2161,8 +2725,23 @@
       <c r="L38">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="2:12">
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38">
+        <v>42</v>
+      </c>
+      <c r="O38">
+        <v>48</v>
+      </c>
+      <c r="P38">
+        <v>54</v>
+      </c>
+      <c r="Q38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
       <c r="C39" t="s">
         <v>50</v>
       </c>
@@ -2193,8 +2772,23 @@
       <c r="L39">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="2:12">
+      <c r="M39">
+        <v>36</v>
+      </c>
+      <c r="N39">
+        <v>42</v>
+      </c>
+      <c r="O39">
+        <v>48</v>
+      </c>
+      <c r="P39">
+        <v>54</v>
+      </c>
+      <c r="Q39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
       <c r="C40" t="s">
         <v>51</v>
       </c>
@@ -2225,8 +2819,23 @@
       <c r="L40">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="2:12">
+      <c r="M40">
+        <v>59</v>
+      </c>
+      <c r="N40">
+        <v>69</v>
+      </c>
+      <c r="O40">
+        <v>78</v>
+      </c>
+      <c r="P40">
+        <v>88</v>
+      </c>
+      <c r="Q40">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
       <c r="C41" t="s">
         <v>52</v>
       </c>
@@ -2257,8 +2866,23 @@
       <c r="L41">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:12">
+      <c r="M41">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>15</v>
+      </c>
+      <c r="O41">
+        <v>17</v>
+      </c>
+      <c r="P41">
+        <v>19</v>
+      </c>
+      <c r="Q41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -2289,8 +2913,23 @@
       <c r="L42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
       <c r="C43" t="s">
         <v>53</v>
       </c>
@@ -2321,8 +2960,23 @@
       <c r="L43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:12">
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>8</v>
+      </c>
+      <c r="P43">
+        <v>9</v>
+      </c>
+      <c r="Q43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
       <c r="C44" t="s">
         <v>54</v>
       </c>
@@ -2353,8 +3007,23 @@
       <c r="L44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:12">
+      <c r="M44">
+        <v>13</v>
+      </c>
+      <c r="N44">
+        <v>15</v>
+      </c>
+      <c r="O44">
+        <v>17</v>
+      </c>
+      <c r="P44">
+        <v>19</v>
+      </c>
+      <c r="Q44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
       <c r="C45" t="s">
         <v>55</v>
       </c>
@@ -2385,8 +3054,23 @@
       <c r="L45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:12">
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
       <c r="C46" t="s">
         <v>56</v>
       </c>
@@ -2417,8 +3101,23 @@
       <c r="L46">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="2:12">
+      <c r="M46">
+        <v>15</v>
+      </c>
+      <c r="N46">
+        <v>18</v>
+      </c>
+      <c r="O46">
+        <v>20</v>
+      </c>
+      <c r="P46">
+        <v>23</v>
+      </c>
+      <c r="Q46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
       <c r="C47" t="s">
         <v>57</v>
       </c>
@@ -2449,8 +3148,23 @@
       <c r="L47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:12">
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
       <c r="C48" t="s">
         <v>58</v>
       </c>
@@ -2481,8 +3195,23 @@
       <c r="L48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+      <c r="P48">
+        <v>4</v>
+      </c>
+      <c r="Q48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="B49" t="s">
         <v>59</v>
       </c>
@@ -2513,8 +3242,23 @@
       <c r="L49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>4</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>5</v>
+      </c>
+      <c r="Q49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="C50" t="s">
         <v>27</v>
       </c>
@@ -2542,8 +3286,23 @@
       <c r="L50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="C51" t="s">
         <v>61</v>
       </c>
@@ -2574,8 +3333,23 @@
       <c r="L51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="C52" t="s">
         <v>62</v>
       </c>
@@ -2606,8 +3380,23 @@
       <c r="L52">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>10</v>
+      </c>
+      <c r="N52">
+        <v>10</v>
+      </c>
+      <c r="O52">
+        <v>12</v>
+      </c>
+      <c r="P52">
+        <v>14</v>
+      </c>
+      <c r="Q52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="C53" t="s">
         <v>63</v>
       </c>
@@ -2638,8 +3427,23 @@
       <c r="L53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="C54" t="s">
         <v>64</v>
       </c>
@@ -2670,8 +3474,23 @@
       <c r="L54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="C55" t="s">
         <v>65</v>
       </c>
@@ -2699,8 +3518,23 @@
       <c r="L55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -2734,8 +3568,23 @@
       <c r="L56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>3</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="C57" t="s">
         <v>65</v>
       </c>
@@ -2763,8 +3612,23 @@
       <c r="L57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>6</v>
+      </c>
+      <c r="O57">
+        <v>7</v>
+      </c>
+      <c r="P57">
+        <v>7</v>
+      </c>
+      <c r="Q57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="C58" t="s">
         <v>69</v>
       </c>
@@ -2792,8 +3656,23 @@
       <c r="L58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="B59" t="s">
         <v>70</v>
       </c>
@@ -2824,8 +3703,23 @@
       <c r="L59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="C60" t="s">
         <v>72</v>
       </c>
@@ -2853,8 +3747,23 @@
       <c r="L60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="C61" t="s">
         <v>73</v>
       </c>
@@ -2882,8 +3791,23 @@
       <c r="L61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="C62" t="s">
         <v>27</v>
       </c>
@@ -2911,8 +3835,23 @@
       <c r="L62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="C63" t="s">
         <v>74</v>
       </c>
@@ -2940,8 +3879,23 @@
       <c r="L63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -2975,8 +3929,23 @@
       <c r="L64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="C65" t="s">
         <v>65</v>
       </c>
@@ -3004,8 +3973,23 @@
       <c r="L65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="C66" t="s">
         <v>69</v>
       </c>
@@ -3033,8 +4017,23 @@
       <c r="L66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -3065,8 +4064,23 @@
       <c r="L67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="C68" t="s">
         <v>72</v>
       </c>
@@ -3094,8 +4108,23 @@
       <c r="L68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="C69" t="s">
         <v>73</v>
       </c>
@@ -3123,8 +4152,23 @@
       <c r="L69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="C70" t="s">
         <v>27</v>
       </c>
@@ -3152,8 +4196,23 @@
       <c r="L70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="C71" t="s">
         <v>74</v>
       </c>
@@ -3181,28 +4240,58 @@
       <c r="L71">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74">
         <v>34</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>70</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74">
         <v>104</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74">
         <v>140</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74">
         <v>176</v>
+      </c>
+      <c r="M74">
+        <v>210</v>
+      </c>
+      <c r="N74">
+        <v>246</v>
+      </c>
+      <c r="O74">
+        <v>280</v>
+      </c>
+      <c r="P74">
+        <v>316</v>
+      </c>
+      <c r="Q74">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
